--- a/output/N6004_fatigue_weld_stress.xlsx
+++ b/output/N6004_fatigue_weld_stress.xlsx
@@ -2478,13 +2478,13 @@
         <v>-0.1725183344658662</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.003022505476991666</v>
+        <v>-0.003022505470979381</v>
       </c>
       <c r="J3" t="n">
         <v>-0.04620276320127561</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002513781099102067</v>
+        <v>0.002513781169625517</v>
       </c>
     </row>
     <row r="4">
@@ -2696,10 +2696,10 @@
         <v>0.02219483358950252</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05829910883094968</v>
+        <v>0.05829910875143682</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02643580465145895</v>
+        <v>0.02643580455457226</v>
       </c>
     </row>
     <row r="9">
@@ -3384,10 +3384,10 @@
         <v>0.05677025400240721</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1492373160172215</v>
+        <v>0.1492373163352728</v>
       </c>
       <c r="K24" t="n">
-        <v>0.06771272076900736</v>
+        <v>0.06771272115655412</v>
       </c>
     </row>
     <row r="25">
@@ -3470,10 +3470,10 @@
         <v>-0.06242902307025801</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.2390974716054279</v>
+        <v>-0.2390974718317553</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.1619009771798421</v>
+        <v>-0.1619009765131031</v>
       </c>
     </row>
     <row r="27">
@@ -3900,10 +3900,10 @@
         <v>-0.02159885576484726</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3559472437636689</v>
+        <v>0.3559472466513669</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.3202484667566411</v>
+        <v>-0.3202484630707669</v>
       </c>
     </row>
     <row r="37">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-20 17:55:23</t>
+          <t>2025-11-21 09:39:50</t>
         </is>
       </c>
     </row>
